--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1652.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1652.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.282725192493946</v>
+        <v>3.088543891906738</v>
       </c>
       <c r="B1">
-        <v>3.591351403880402</v>
+        <v>2.970503568649292</v>
       </c>
       <c r="C1">
-        <v>3.043886754873272</v>
+        <v>2.688413619995117</v>
       </c>
       <c r="D1">
-        <v>2.320048397360461</v>
+        <v>3.012854099273682</v>
       </c>
       <c r="E1">
-        <v>1.299070815667411</v>
+        <v>2.758003234863281</v>
       </c>
     </row>
   </sheetData>
